--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CBCEAAA-16D6-4AF8-9DD4-E58433948B64}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3463610-E555-40B1-9B2C-2038BA745FB9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,13 +70,13 @@
     <t>四埜宮 謳</t>
   </si>
   <si>
-    <t>utai.png</t>
+    <t>utai.jpg</t>
   </si>
   <si>
     <t>PaNdA</t>
   </si>
   <si>
-    <t>panda.jpg</t>
+    <t>panda.png</t>
   </si>
   <si>
     <t>コモンメンバー</t>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3463610-E555-40B1-9B2C-2038BA745FB9}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A602204A-9B0C-4C27-88FB-FD48BAE362C4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>#役職</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>fuuka.png</t>
+  </si>
+  <si>
+    <t>ビジター</t>
+  </si>
+  <si>
+    <t>メア</t>
+  </si>
+  <si>
+    <t>mea.png</t>
   </si>
 </sst>
 </file>
@@ -461,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -562,6 +571,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A602204A-9B0C-4C27-88FB-FD48BAE362C4}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D25DB1-FB4B-412F-A7CE-F0DEE66C62CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>#役職</t>
   </si>
@@ -73,15 +73,15 @@
     <t>utai.jpg</t>
   </si>
   <si>
+    <t>コモンメンバー</t>
+  </si>
+  <si>
     <t>PaNdA</t>
   </si>
   <si>
     <t>panda.png</t>
   </si>
   <si>
-    <t>コモンメンバー</t>
-  </si>
-  <si>
     <t>Forty</t>
   </si>
   <si>
@@ -100,13 +100,10 @@
     <t>fuuka.png</t>
   </si>
   <si>
-    <t>ビジター</t>
-  </si>
-  <si>
-    <t>メア</t>
-  </si>
-  <si>
-    <t>mea.png</t>
+    <t>そらえ</t>
+  </si>
+  <si>
+    <t>sorae.png</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -529,18 +526,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -551,7 +548,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -573,13 +570,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24321"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D25DB1-FB4B-412F-A7CE-F0DEE66C62CF}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D6D3E7-9724-4A0C-AE0A-AF36BE0625A0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>#役職</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>panda.png</t>
-  </si>
-  <si>
-    <t>Forty</t>
-  </si>
-  <si>
-    <t>forty.png</t>
   </si>
   <si>
     <t>くま吉</t>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -568,17 +562,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24321"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rei\Documents\GitHub\syureneko.github.io\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D6D3E7-9724-4A0C-AE0A-AF36BE0625A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B4F68-F48F-49C2-9F4B-3EE86BF8F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memberList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>#役職</t>
   </si>
@@ -64,15 +53,6 @@
     <t>rei.png</t>
   </si>
   <si>
-    <t>マネージャー</t>
-  </si>
-  <si>
-    <t>四埜宮 謳</t>
-  </si>
-  <si>
-    <t>utai.jpg</t>
-  </si>
-  <si>
     <t>コモンメンバー</t>
   </si>
   <si>
@@ -104,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,20 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -496,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -507,7 +487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -518,48 +498,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rei\Documents\GitHub\syureneko.github.io\json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B4F68-F48F-49C2-9F4B-3EE86BF8F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006F6318-448D-4A18-9219-7737F9C3DC8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memberList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>#役職</t>
   </si>
@@ -79,12 +90,21 @@
   <si>
     <t>sorae.png</t>
   </si>
+  <si>
+    <t>ビジター</t>
+  </si>
+  <si>
+    <t>ソフィーナ</t>
+  </si>
+  <si>
+    <t>sofi-na.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,20 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -476,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -487,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -498,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -509,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -520,7 +540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -529,6 +549,17 @@
       </c>
       <c r="C7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006F6318-448D-4A18-9219-7737F9C3DC8F}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_2EAAC5A231AF0CD2C531C6D9D7403371B55F5C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38652D48-7CA1-479B-B299-82F93B3636D5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>PaNdA</t>
   </si>
   <si>
-    <t>panda.png</t>
+    <t>panda.jpeg</t>
   </si>
   <si>
     <t>くま吉</t>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/json/memberList.xlsx
+++ b/json/memberList.xlsx
@@ -158,8 +158,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,18 +187,18 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -205,7 +209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -216,8 +220,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -227,8 +231,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -238,8 +242,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -249,8 +253,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -260,8 +264,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -271,8 +275,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -283,6 +287,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A8" type="list">
+      <formula1>"リーダー,マネージャー,コモンメンバー,ビジター"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
